--- a/Mifos Automation Excels/Client/4218-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4218-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Newcreateloan1.xlsx
@@ -227,7 +227,7 @@
     <t>Groups4218</t>
   </si>
   <si>
-    <t>4218-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER</t>
+    <t>4218-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ON-PER-1st</t>
   </si>
 </sst>
 </file>
